--- a/Демонстрационные фермы/Ферма по мануалу/Синхронизированные таблицы/Активности.xlsx
+++ b/Демонстрационные фермы/Ферма по мануалу/Синхронизированные таблицы/Активности.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ZennoPoster\ezFERM macDevRoot\ezFERM - создатель ферм\Демонстрационные фермы\Ферма по мануалу\Синхронизированные таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ZennoPoster\ezSOFT dev\ezFERM\Демонстрационные фермы\Ферма по мануалу\Синхронизированные таблицы\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A95B1DD-AC18-4248-BD46-B2EC0CDABA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Активности" sheetId="1" r:id="rId3"/>
+    <sheet name="Активности" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" calcId="191029"/>
-  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <calcPr calcId="191029"/>
+  <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Лайки</t>
   </si>
@@ -59,9 +60,6 @@
   </si>
   <si>
     <t>profile2.zpprofile</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>profile3.zpprofile</t>
@@ -88,12 +86,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,10 +118,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -396,23 +395,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.32813" customWidth="1"/>
-    <col min="2" max="2" width="6.328125" customWidth="1"/>
-    <col min="3" max="3" width="19.66016" customWidth="1"/>
-    <col min="4" max="4" width="22.10938" customWidth="1"/>
-    <col min="5" max="5" width="13.10938" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -429,178 +429,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>